--- a/doc/backlog.xlsx
+++ b/doc/backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SueJane\Desktop\软工\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SueJane\Documents\GitHub\SE\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567F994B-BD58-4FE8-AE28-D6DF1297DC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6742CD2B-C8DE-4BBF-A6BF-2B67EC622189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BA9ACDEE-8DD2-49F8-B366-BE975D5AB11D}"/>
   </bookViews>
@@ -638,14 +638,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937FA13C-14F9-4996-94D5-FDF3E6F55085}">
   <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="112" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.77734375" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" customWidth="1"/>
+    <col min="6" max="6" width="35.77734375" customWidth="1"/>
     <col min="7" max="7" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -698,7 +698,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="2:7" ht="69" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -738,7 +738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -756,7 +756,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="2:7" ht="69" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>5</v>
       </c>
@@ -774,7 +774,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="2:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>6</v>
       </c>
@@ -792,7 +792,7 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="2:7" ht="69" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>7</v>
       </c>
@@ -830,7 +830,7 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>9</v>
       </c>
@@ -848,7 +848,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>10</v>
       </c>
